--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -43,52 +43,55 @@
     <t>evil</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>fucking</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>hate</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
     <t>scary</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>false</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>black</t>
+    <t>seriously</t>
   </si>
   <si>
     <t>bad</t>
@@ -97,19 +100,19 @@
     <t>fake</t>
   </si>
   <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
+    <t>better</t>
   </si>
   <si>
     <t>interesting</t>
@@ -118,9 +121,6 @@
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
@@ -130,12 +130,12 @@
     <t>first</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
@@ -151,19 +151,19 @@
     <t>netflix</t>
   </si>
   <si>
-    <t>watching</t>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
   <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -617,13 +617,13 @@
         <v>29</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -643,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,13 +717,13 @@
         <v>31</v>
       </c>
       <c r="K5">
-        <v>0.86</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -743,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K6">
-        <v>0.7192982456140351</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9242424242424242</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="C7">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D7">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K7">
-        <v>0.7066666666666667</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L7">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +867,13 @@
         <v>34</v>
       </c>
       <c r="K8">
-        <v>0.6551724137931034</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L8">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="M8">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7368421052631579</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -911,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K9">
-        <v>0.6166666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="L9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -943,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.725</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K10">
-        <v>0.5555555555555556</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -993,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.725</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1011,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K11">
-        <v>0.4545454545454545</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1043,13 +1043,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6014492753623188</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="C12">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K12">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L12">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M12">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1093,13 +1093,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.574468085106383</v>
+        <v>0.65</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>39</v>
@@ -1120,10 +1120,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="L13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1143,13 +1143,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5652173913043478</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>40</v>
@@ -1193,37 +1193,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5384615384615384</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>14</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K15">
-        <v>0.2513661202185792</v>
+        <v>0.2668488160291439</v>
       </c>
       <c r="L15">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="M15">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>822</v>
+        <v>805</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1243,13 +1243,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5142857142857142</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>42</v>
@@ -1293,13 +1293,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K17">
-        <v>0.1263157894736842</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1343,13 +1343,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K18">
-        <v>0.04629629629629629</v>
+        <v>0.05740740740740741</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1393,13 +1393,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4285714285714285</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K19">
-        <v>0.04398826979472141</v>
+        <v>0.04240282685512368</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>326</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1443,13 +1443,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1461,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>0.03246753246753246</v>
+        <v>0.02560819462227913</v>
       </c>
       <c r="L20">
         <v>20</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>596</v>
+        <v>761</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1493,7 +1493,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1538461538461539</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C21">
         <v>12</v>
@@ -1511,19 +1511,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K21">
-        <v>0.03162650602409638</v>
+        <v>0.02560240963855422</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1543,37 +1543,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0436241610738255</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C22">
         <v>13</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>285</v>
+        <v>65</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K22">
-        <v>0.02649769585253456</v>
+        <v>0.02361751152073733</v>
       </c>
       <c r="L22">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1690</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1593,13 +1593,13 @@
         <v>49</v>
       </c>
       <c r="K23">
-        <v>0.02560819462227913</v>
+        <v>0.0211038961038961</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>761</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
